--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>254519.029068937</v>
+        <v>252631.4475525351</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>29.81956111589711</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.291181077703661</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>262.5770567221875</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>160.0655515896122</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>273.6361929743166</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>22.96475740885605</v>
+        <v>95.29787616176765</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>394.201894178618</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>279.0531681370666</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.60408762095474</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>123.5756458870621</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.63855811792</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>12.16692371255236</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.9452050227368</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>164.3675597136116</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>130.8380249033135</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>142.2479585261229</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>237.4804158064615</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>253.4345021185961</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>33.32815808118188</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>169.7438101404422</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>49.45598643312702</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>276.2330889766189</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>19.42986553940398</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571493</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>54.76109577523574</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>166.3443044298322</v>
@@ -3016,7 +3016,7 @@
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.65873182143911</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337368</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463131</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463131</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1435.441956461044</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="C2" t="n">
-        <v>1066.479439520632</v>
+        <v>1039.683096047709</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1039.683096047709</v>
       </c>
       <c r="E2" t="n">
         <v>1036.358670716696</v>
@@ -4361,19 +4361,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X2" t="n">
-        <v>2212.181128500977</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y2" t="n">
-        <v>1822.041796525165</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>235.5914466506042</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>235.5914466506042</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>235.5914466506042</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2480.438026205673</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2480.438026205673</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2149.375138862102</v>
+        <v>2111.958421263255</v>
       </c>
       <c r="W5" t="n">
-        <v>2149.375138862102</v>
+        <v>2111.958421263255</v>
       </c>
       <c r="X5" t="n">
-        <v>2149.375138862102</v>
+        <v>2111.958421263255</v>
       </c>
       <c r="Y5" t="n">
-        <v>2149.375138862102</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="6">
@@ -4662,7 +4662,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.7960311703079</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C7" t="n">
-        <v>268.5993065148977</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5993065148977</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005476</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005476</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005476</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035256</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C8" t="n">
-        <v>863.1126181035256</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>863.1126181035256</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>863.1126181035256</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>452.1267133139181</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018224</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674653</v>
+        <v>2161.515418649176</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404539</v>
+        <v>1808.746763379062</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143459</v>
+        <v>1808.746763379062</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167647</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614631</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014718</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035062</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409106</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130037</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>348.746022900668</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600568</v>
+        <v>603.305099472028</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600568</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600568</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600568</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600568</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600568</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600568</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600568</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5057,10 +5057,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>531.109187020113</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C13" t="n">
-        <v>531.109187020113</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>531.109187020113</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>531.109187020113</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>384.2192395222027</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>216.0439178420233</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5203,16 +5203,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5227,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570736</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>531.109187020113</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X13" t="n">
-        <v>531.109187020113</v>
+        <v>754.894602230607</v>
       </c>
       <c r="Y13" t="n">
-        <v>531.109187020113</v>
+        <v>742.6047802987359</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5276,16 +5276,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>988.7065213774116</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>819.7703384495047</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>669.653699037169</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>521.7406054547756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>521.7406054547756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5467,19 +5467,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655736</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>665.6859735286129</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.499100520942</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.7065213774116</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,67 +5498,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5601,7 +5601,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>545.4651278373165</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3055067228584</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5704,19 +5704,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655735</v>
+        <v>1355.231463965859</v>
       </c>
       <c r="W19" t="n">
-        <v>955.1031435655735</v>
+        <v>1065.814293928898</v>
       </c>
       <c r="X19" t="n">
-        <v>727.1135926675562</v>
+        <v>837.8247430308809</v>
       </c>
       <c r="Y19" t="n">
-        <v>727.1135926675562</v>
+        <v>837.8247430308809</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,13 +5771,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.3337308726216</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,7 +5926,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609663</v>
+        <v>1259.037062672588</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550795</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W22" t="n">
-        <v>475.323281770639</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X22" t="n">
-        <v>247.3337308726216</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y22" t="n">
-        <v>247.3337308726216</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>467.99340221098</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>299.0572192830731</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>299.0572192830731</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>870.4344461847498</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>649.6418670412197</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,34 +6242,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>465.7659634441652</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>465.7659634441652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>465.7659634441652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>465.7659634441652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>1219.892948359297</v>
       </c>
       <c r="V28" t="n">
-        <v>755.1831334811258</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W28" t="n">
-        <v>465.7659634441652</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X28" t="n">
-        <v>465.7659634441652</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y28" t="n">
-        <v>465.7659634441652</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6549,19 +6549,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>582.6866369260349</v>
+        <v>583.6915747572953</v>
       </c>
       <c r="C31" t="n">
-        <v>469.5113192794988</v>
+        <v>470.5162571107592</v>
       </c>
       <c r="D31" t="n">
-        <v>375.1555451485338</v>
+        <v>376.1604829797942</v>
       </c>
       <c r="E31" t="n">
-        <v>283.0033168475114</v>
+        <v>376.1604829797942</v>
       </c>
       <c r="F31" t="n">
-        <v>191.8742346309718</v>
+        <v>285.0314007632546</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>172.616944364446</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
         <v>997.668872196205</v>
@@ -6646,25 +6646,25 @@
         <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1712.787274970147</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1479.419501465076</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1280.49587854056</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818929</v>
+        <v>1046.83957378497</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652463</v>
+        <v>874.6108881683235</v>
       </c>
       <c r="Y31" t="n">
-        <v>708.5742364749038</v>
+        <v>709.5791743061642</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,19 +6698,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6725,22 +6725,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>181.9314425141218</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>592.8217113586345</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,10 +7090,10 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,67 +7157,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1595.645765494012</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1925.508393158045</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2205.048458376742</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2410.070939158952</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,31 +7351,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7549,31 +7549,31 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
@@ -7807,28 +7807,28 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901031</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270185</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992653</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>277.671796620807</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298383</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>43.65987261462459</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>127.6461250100637</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>31.27527024961609</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>206.4177296395424</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>5.548363440640824</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>61.34209567542555</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>36.40879619531438</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>109.8896847977051</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24178,22 +24178,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>48.75693659211589</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>33.08849621799487</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>113.1058045653873</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>82.39383318338577</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>95.96506158980422</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>10.00426342195851</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>74.28070619957508</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571492</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>141.7226649020986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26317,7 +26317,7 @@
         <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="E2" t="n">
         <v>312823.2477901669</v>
@@ -26326,34 +26326,34 @@
         <v>312823.2477901669</v>
       </c>
       <c r="G2" t="n">
+        <v>312823.2477901669</v>
+      </c>
+      <c r="H2" t="n">
         <v>312823.247790167</v>
-      </c>
-      <c r="H2" t="n">
-        <v>312823.2477901669</v>
       </c>
       <c r="I2" t="n">
         <v>312823.2477901669</v>
       </c>
       <c r="J2" t="n">
-        <v>312823.2477901669</v>
+        <v>312823.247790167</v>
       </c>
       <c r="K2" t="n">
-        <v>325457.7098762157</v>
+        <v>325457.7098762158</v>
       </c>
       <c r="L2" t="n">
+        <v>328416.7079457133</v>
+      </c>
+      <c r="M2" t="n">
+        <v>328416.7079457134</v>
+      </c>
+      <c r="N2" t="n">
+        <v>328416.7079457134</v>
+      </c>
+      <c r="O2" t="n">
         <v>328416.7079457135</v>
       </c>
-      <c r="M2" t="n">
-        <v>328416.7079457133</v>
-      </c>
-      <c r="N2" t="n">
-        <v>328416.7079457132</v>
-      </c>
-      <c r="O2" t="n">
-        <v>328416.7079457134</v>
-      </c>
       <c r="P2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457136</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086688</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>2.354388470848789e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865243</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
@@ -26430,34 +26430,34 @@
         <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>40339.23010106725</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819113</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819111</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26485,28 +26485,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26522,46 +26522,46 @@
         <v>-510043.1171187649</v>
       </c>
       <c r="C6" t="n">
-        <v>79924.76209577933</v>
+        <v>79924.76209577938</v>
       </c>
       <c r="D6" t="n">
-        <v>79924.76209577912</v>
+        <v>79924.76209577953</v>
       </c>
       <c r="E6" t="n">
-        <v>-326498.7222223161</v>
+        <v>-326596.1813482887</v>
       </c>
       <c r="F6" t="n">
-        <v>198661.3142545795</v>
+        <v>198563.8551286074</v>
       </c>
       <c r="G6" t="n">
-        <v>198661.3142545797</v>
+        <v>198563.8551286073</v>
       </c>
       <c r="H6" t="n">
-        <v>198661.3142545796</v>
+        <v>198563.8551286075</v>
       </c>
       <c r="I6" t="n">
-        <v>198661.3142545796</v>
+        <v>198563.8551286074</v>
       </c>
       <c r="J6" t="n">
-        <v>22238.09506198662</v>
+        <v>22140.6359360146</v>
       </c>
       <c r="K6" t="n">
-        <v>144327.66594208</v>
+        <v>144309.1722041457</v>
       </c>
       <c r="L6" t="n">
-        <v>175765.30049663</v>
+        <v>175765.3004966298</v>
       </c>
       <c r="M6" t="n">
-        <v>51307.19206365956</v>
+        <v>51307.19206365955</v>
       </c>
       <c r="N6" t="n">
-        <v>186108.2072974965</v>
+        <v>186108.2072974968</v>
       </c>
       <c r="O6" t="n">
-        <v>186108.2072974971</v>
+        <v>186108.2072974969</v>
       </c>
       <c r="P6" t="n">
-        <v>141945.6019946512</v>
+        <v>141945.6019946513</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964061</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,28 +26750,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26820,10 +26820,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26935,7 +26935,7 @@
         <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010836</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>324.8634805047859</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>378.6391889945581</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27585,22 +27585,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>23.70481751979025</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>56.93405031343804</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>56.38276876804559</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>54.1160654958183</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>144.2820636897718</v>
+        <v>71.94894493686019</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>19.58227584217695</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481161</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>48.69909033306834</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.2278925609826</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853695</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>23.08954609309573</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.647164540537</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633807</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647356</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141117</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188923</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396484</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034987</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078618</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175854</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383809</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678014</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315614</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.222741532893</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873158</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>610.8663700188198</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>85.57005156953127</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>215.6591577951379</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
